--- a/Assets/QuickSheet/info_gun.xlsx
+++ b/Assets/QuickSheet/info_gun.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Gun-Sounds-Gun-Simulator\Assets\guns\texture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Gun-Sounds-Gun-Simulator\Assets\QuickSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1F9C0C-FBDE-406C-A6C2-2CBCA5D9C00B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7A7420-78C0-4BDE-902B-833C8CCCFCE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="866">
   <si>
     <t>Type</t>
   </si>
@@ -3051,6 +3051,9 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Semi</t>
   </si>
 </sst>
 </file>
@@ -3428,3706 +3431,3905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.109375" customWidth="1"/>
-    <col min="15" max="15" width="33.109375" customWidth="1"/>
-    <col min="16" max="16" width="32.44140625" customWidth="1"/>
-    <col min="17" max="17" width="30.21875" customWidth="1"/>
-    <col min="18" max="18" width="25.5546875" customWidth="1"/>
-    <col min="19" max="19" width="59.6640625" customWidth="1"/>
-    <col min="20" max="20" width="31.109375" customWidth="1"/>
+    <col min="2" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="32.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" customWidth="1"/>
+    <col min="16" max="16" width="33.109375" customWidth="1"/>
+    <col min="17" max="17" width="32.44140625" customWidth="1"/>
+    <col min="18" max="18" width="30.21875" customWidth="1"/>
+    <col min="19" max="19" width="25.5546875" customWidth="1"/>
+    <col min="20" max="20" width="59.6640625" customWidth="1"/>
+    <col min="21" max="21" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>864</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="5"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:21" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>1959</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>1980</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1956</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="7"/>
+      <c r="U6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="199.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="199.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>2004</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>2004</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="281.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="281.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="N13" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>181</v>
       </c>
       <c r="S14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>1999</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>1895</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>1961</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>1950</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J22" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="N22" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="178.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="178.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>2002</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>1958</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>1866</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>1959</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3" t="s">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>1942</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>1960</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="J30" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="R31" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>1980</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="P32" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="R32" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="P33" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="R33" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="R34" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="T34" s="3" t="s">
+      <c r="U34" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="U34" s="1">
+      <c r="V34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="S35" s="3" t="s">
+      <c r="T35" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="T35" s="3" t="s">
+      <c r="U35" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="U35" s="1">
+      <c r="V35" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>1994</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="S36" s="3" t="s">
+      <c r="T36" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="U36" s="1">
+      <c r="V36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>1998</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="3"/>
+      <c r="O37" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="S37" s="3" t="s">
+      <c r="T37" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="U37" s="1">
+      <c r="V37" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>1918</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="I38" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="T38" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="U38" s="1">
+      <c r="V38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>1987</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="T39" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="U39" s="1">
+      <c r="V39" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="T40" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="U40" s="1">
+      <c r="V40" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="R41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="T41" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="U41" s="1">
+      <c r="V41" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>1975</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="N42" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="P42" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="R42" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="T42" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="U42" s="1">
+      <c r="V42" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>1983</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="N43" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="R43" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="U43" s="1">
+      <c r="V43" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="T44" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="U44" s="1">
+      <c r="V44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="U45" s="1">
+      <c r="V45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>590</v>
       </c>
       <c r="L46" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="M46" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="N46" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="P46" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="R46" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="T46" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="U46" s="1">
+      <c r="V46" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="P47" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="T47" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="U47" s="1">
+      <c r="V47" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="R48" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="T48" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="U48" s="1">
+      <c r="V48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="T49" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="U49" s="1">
+      <c r="V49" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="N50" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="S50" s="3" t="s">
+      <c r="T50" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="T50" s="3" t="s">
+      <c r="U50" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="U50" s="1">
+      <c r="V50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="N51" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="P51" s="3" t="s">
+      <c r="Q51" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="T51" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="T51" s="3" t="s">
+      <c r="U51" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="U51" s="1">
+      <c r="V51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="R52" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="T52" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="U52" s="1">
+      <c r="V52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="N53" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="Q53" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="T53" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="T53" s="3" t="s">
+      <c r="U53" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="U53" s="1">
+      <c r="V53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="P54" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="Q54" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="R54" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="S54" s="3" t="s">
+      <c r="T54" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="U54" s="1">
+      <c r="V54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="N55" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="Q55" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="R55" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="S55" s="3" t="s">
+      <c r="T55" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="T55" s="3" t="s">
+      <c r="U55" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="U55" s="1">
+      <c r="V55" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>1928</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="L56" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="M56" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="N56" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="P56" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="P56" s="3" t="s">
+      <c r="Q56" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="R56" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="S56" s="3" t="s">
+      <c r="T56" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="T56" s="3" t="s">
+      <c r="U56" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="U56" s="1">
+      <c r="V56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>1989</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="L57" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="N57" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="O57" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="T57" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="U57" s="1">
+      <c r="V57" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>1954</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="U58" s="1">
+      <c r="V58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>1980</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="N59" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="P59" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="Q59" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="R59" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="R59" s="3" t="s">
+      <c r="S59" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="S59" s="3" t="s">
+      <c r="T59" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="T59" s="3" t="s">
+      <c r="U59" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="U59" s="1">
+      <c r="V59" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="L60" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="L60" s="3" t="s">
+      <c r="M60" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="O60" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="O60" s="3" t="s">
+      <c r="P60" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="Q60" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="Q60" s="3" t="s">
+      <c r="R60" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="R60" s="3" t="s">
+      <c r="S60" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="S60" s="3" t="s">
+      <c r="T60" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="T60" s="3" t="s">
+      <c r="U60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U60" s="1">
+      <c r="V60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>785</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="K61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="L61" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="O61" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="P61" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="P61" s="3" t="s">
+      <c r="Q61" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="R61" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="S61" s="3" t="s">
+      <c r="T61" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="T61" s="3" t="s">
+      <c r="U61" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U61" s="1">
+      <c r="V61" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>1950</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="T62" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="U62" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="U62" s="1">
+      <c r="V62" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>807</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="L63" s="3" t="s">
         <v>814</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="M63" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="N63" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="P63" s="3" t="s">
+      <c r="Q63" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="S63" s="3" t="s">
+      <c r="T63" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="T63" s="3" t="s">
+      <c r="U63" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="U63" s="1">
+      <c r="V63" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="K64" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="L64" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="S64" s="3" t="s">
+      <c r="T64" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="T64" s="3" t="s">
+      <c r="U64" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="U64" s="1">
+      <c r="V64" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="G65" s="3">
+      <c r="H65" s="3">
         <v>1964</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="L65" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="N65" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="P65" s="3" t="s">
         <v>837</v>
       </c>
-      <c r="P65" s="3" t="s">
+      <c r="Q65" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="Q65" s="3" t="s">
+      <c r="R65" s="3" t="s">
         <v>839</v>
       </c>
-      <c r="R65" s="3" t="s">
+      <c r="S65" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="S65" s="3" t="s">
+      <c r="T65" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="T65" s="3" t="s">
+      <c r="U65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="U65" s="1">
+      <c r="V65" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>2008</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="M66" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="N66" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="P66" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="Q66" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="S66" s="3" t="s">
+      <c r="T66" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="U66" s="1">
+      <c r="V66" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>850</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>852</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>1960</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="J67" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>855</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="L67" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="M67" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="N67" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="O67" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="O67" s="3" t="s">
+      <c r="P67" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="P67" s="3" t="s">
+      <c r="Q67" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="R67" s="3" t="s">
+      <c r="S67" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="S67" s="3" t="s">
+      <c r="T67" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="T67" s="3" t="s">
+      <c r="U67" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="U67" s="1">
+      <c r="V67" s="1">
         <v>1</v>
       </c>
     </row>
